--- a/medicine/Enfance/Raymonde_Lamothe/Raymonde_Lamothe.xlsx
+++ b/medicine/Enfance/Raymonde_Lamothe/Raymonde_Lamothe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Raymonde Lamothe est une auteure, artiste visuelle et travailleuse culturelle québécoise née le 11 mai 1947.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir publié un premier livre intitulé Les patenteux du Québec chez Parti-Pris en 1974, Raymonde Lamothe a pratiqué tous les métiers de l’édition, que ce soit en tant qu’éditrice, directrice de collection, auteure, graphiste et illustratrice.
 Engagée dans les luttes féministes des années 1970, elle a été membre-fondatrice des Éditions du remue-ménage en 1975. Elle est à l’origine du premier Agenda des femmes, du premier livre féministe pour enfants intitulé Histoires vraies de tous les jours, ainsi que du calendrier sur le cinquantième anniversaire du droit de vote des Québécoises. Elle a aussi publié aux éditions du Boréal Express De la poêle à frire à la ligne de feu sur la vie quotidienne des Québécoises pendant la guerre 39-45.
